--- a/biology/Biologie cellulaire et moléculaire/Martine_Jandrot-Perrus/Martine_Jandrot-Perrus.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Martine_Jandrot-Perrus/Martine_Jandrot-Perrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martine Jandrot-Perrus, née le 25 mai 1951 à Paris, est médecin de formation et chercheuse en biologie. Elle a identifié et cloné le principal récepteur plaquettaire au collagène, la glycoprotéine VI, contre laquelle elle a développé un anticorps médicament pour le traitement des thromboses. Martine Jandrot-Perrus a été élevée au grade de Chevalier de l'ordre national de la Légion d'honneur en juillet 2016 en reconnaissance de ses 40 années de service dont 35 en tant que chercheuse à l’Institut national de la santé et recherche médicale (INSERM). Elle est actuellement directrice de recherche émérite au sein de l’unité INSERM 1148 à l'hôpital Bichat. Martine Jandrot-Perrus est la mère de l'escrimeuse Léonore Perrus.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martine Jandrot-Perrus a obtenu son doctorat en médecine en 1977 avec la Médaille d’Argent de l’Université Paris Descartes après avoir travaillé au sein des services des Pr François Josso (Hôpital Necker-enfants malades)  et Doris Ménasché (Hôpital Beaujon). En 1979, au cours de son doctorat en sciences (spécialité hématologie biologie), elle a effectué un séjour dans le laboratoire du Dr Michael W. Mosesson[1] au Downstate Medical Center, New York (États-Unis). Elle obtient son doctorat de biochimie enzymologie en 1981 (Université Paris Sud, Orsay) et est recrutée comme chargée de recherche  à l’INSERM en 1982 où elle intègre le laboratoire de recherche sur l’hémostase et la thrombose dirigé par le Pr Marie-Claude Guillin (Faculté Xavier Bichat). Elle est promue directrice de recherche en 1992. Depuis septembre 2016, elle est directrice de recherche émérite au sein de l'unité Inserm 1148 (Hôpital Bichat).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martine Jandrot-Perrus a obtenu son doctorat en médecine en 1977 avec la Médaille d’Argent de l’Université Paris Descartes après avoir travaillé au sein des services des Pr François Josso (Hôpital Necker-enfants malades)  et Doris Ménasché (Hôpital Beaujon). En 1979, au cours de son doctorat en sciences (spécialité hématologie biologie), elle a effectué un séjour dans le laboratoire du Dr Michael W. Mosesson au Downstate Medical Center, New York (États-Unis). Elle obtient son doctorat de biochimie enzymologie en 1981 (Université Paris Sud, Orsay) et est recrutée comme chargée de recherche  à l’INSERM en 1982 où elle intègre le laboratoire de recherche sur l’hémostase et la thrombose dirigé par le Pr Marie-Claude Guillin (Faculté Xavier Bichat). Elle est promue directrice de recherche en 1992. Depuis septembre 2016, elle est directrice de recherche émérite au sein de l'unité Inserm 1148 (Hôpital Bichat).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Apport scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martine Jandrot-Perrus a consacré sa recherche à l'étude de la biologie plaquettaire et de l'hémostase. Ses travaux ont notamment porté sur la caractérisation d’un inhibiteur de la thrombine, la protéase-nexine 1, et de ses fonctions dans l'hémostase.  Elle a également cloné le récepteur majeur des plaquettes au collagène, la glycoprotéine VI (GPVI), qu'elle a caractérisée fonctionnellement. Ses travaux ont contribué à démontrer le rôle accessoire de la GPVI dans l’hémostase primaire et son rôle critique dans la thrombose, ouvrant ainsi la porte au développement d'un anticorps thérapeutique anti-GPVI par la spin-off de l'Inserm "Acticor Biotech"[2],[3],[4],[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martine Jandrot-Perrus a consacré sa recherche à l'étude de la biologie plaquettaire et de l'hémostase. Ses travaux ont notamment porté sur la caractérisation d’un inhibiteur de la thrombine, la protéase-nexine 1, et de ses fonctions dans l'hémostase.  Elle a également cloné le récepteur majeur des plaquettes au collagène, la glycoprotéine VI (GPVI), qu'elle a caractérisée fonctionnellement. Ses travaux ont contribué à démontrer le rôle accessoire de la GPVI dans l’hémostase primaire et son rôle critique dans la thrombose, ouvrant ainsi la porte au développement d'un anticorps thérapeutique anti-GPVI par la spin-off de l'Inserm "Acticor Biotech". 
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2002 : Prix Coup d’élan pour la recherche française de la Fondation Bettencourt-Schueller[6].
-2003 : Prix Le Goff, Lemonon, Houry, Laveran, Académie des sciences[7]
-2009 : Premier prix de la Fondation SGAM-Asset pour l’innovation thérapeutique[8]
-2016: Chevalier de la Légion d'honneur[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2002 : Prix Coup d’élan pour la recherche française de la Fondation Bettencourt-Schueller.
+2003 : Prix Le Goff, Lemonon, Houry, Laveran, Académie des sciences
+2009 : Premier prix de la Fondation SGAM-Asset pour l’innovation thérapeutique
+2016: Chevalier de la Légion d'honneur.</t>
         </is>
       </c>
     </row>
